--- a/Phân tích/Yêu cầu hiệu quả.xlsx
+++ b/Phân tích/Yêu cầu hiệu quả.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Phân tích\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\CN Phan Mem\Homework\CNPM\Phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB21881-C7F8-498F-8BCC-EA6D0B7D7FCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1D9D2A-A931-47B4-8053-CA092FEA5CD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>STT</t>
   </si>
@@ -36,105 +36,6 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>- Thêm nhân viên</t>
-  </si>
-  <si>
-    <t>- Xem thông tin nhân viên</t>
-  </si>
-  <si>
-    <t>- Cập nhật thông tin nhân viên</t>
-  </si>
-  <si>
-    <t>- Tính lương</t>
-  </si>
-  <si>
-    <t>- Danh mục nhân viên</t>
-  </si>
-  <si>
-    <t>-Danh mục  đơn đặt hàng</t>
-  </si>
-  <si>
-    <t>- Danh mục  khách hàng</t>
-  </si>
-  <si>
-    <t>- Danh mục  kho</t>
-  </si>
-  <si>
-    <t>- Danh mục  hóa đơn</t>
-  </si>
-  <si>
-    <t>- Báo cáo doanh thu</t>
-  </si>
-  <si>
-    <t>- Báo cáo khách hàng</t>
-  </si>
-  <si>
-    <t>- Báo cáo sản phẩm</t>
-  </si>
-  <si>
-    <t>- Tìm kiếm sản phẩm</t>
-  </si>
-  <si>
-    <t>- Tìm kiếm khách hàng</t>
-  </si>
-  <si>
-    <t>- Tìm kiếm đơn hàng</t>
-  </si>
-  <si>
-    <t>- Tìm kiếm nhân viên</t>
-  </si>
-  <si>
-    <t>- Tìm kiếm hóa đơn</t>
-  </si>
-  <si>
-    <t>- Thêm hàng hóa</t>
-  </si>
-  <si>
-    <t>- Xem thông tin hàng hóa</t>
-  </si>
-  <si>
-    <t>- Cập nhật chi tiết hàng hóa</t>
-  </si>
-  <si>
-    <t>- Tạo đơn hàng</t>
-  </si>
-  <si>
-    <t>- Xuất hóa đơn</t>
-  </si>
-  <si>
-    <t>- Cập nhật đơn hàng</t>
-  </si>
-  <si>
-    <t>- Xem thông tin đơn hàng</t>
-  </si>
-  <si>
-    <t>- Tạo hóa đơn</t>
-  </si>
-  <si>
-    <t>- Xem thông tin hóa đơn</t>
-  </si>
-  <si>
-    <t>- Cập nhật thông tin hóa đơn</t>
-  </si>
-  <si>
-    <t>- Tạo hồ sơ khách hàng</t>
-  </si>
-  <si>
-    <t>- Cập nhật thông tin khách hàng</t>
-  </si>
-  <si>
-    <t>- Đăng nhập</t>
-  </si>
-  <si>
-    <t>- Thay đổi thông tin tài khoản</t>
-  </si>
-  <si>
-    <t>- Đặt lịch làm việc</t>
-  </si>
-  <si>
-    <t>-Check in/out</t>
-  </si>
-  <si>
     <t>Yêu cầu hiệu quả</t>
   </si>
   <si>
@@ -156,9 +57,6 @@
     <t>Thực hiện đúng theo yêu cầu</t>
   </si>
   <si>
-    <t>- Danh mục  đơn đặt hàng</t>
-  </si>
-  <si>
     <t>Chuẩn bị danh sách hàng cần nhập</t>
   </si>
   <si>
@@ -166,6 +64,36 @@
   </si>
   <si>
     <t>Chuẩn bị danh sách các ca làm</t>
+  </si>
+  <si>
+    <t>Quản lí nhân viên</t>
+  </si>
+  <si>
+    <t>Chấm công</t>
+  </si>
+  <si>
+    <t>Quản lí danh mục</t>
+  </si>
+  <si>
+    <t>Báo cáo</t>
+  </si>
+  <si>
+    <t>Tìm kiếm</t>
+  </si>
+  <si>
+    <t>Quản lí kho</t>
+  </si>
+  <si>
+    <t>Quản lí đặt hàng</t>
+  </si>
+  <si>
+    <t>Quản lí hóa đơn</t>
+  </si>
+  <si>
+    <t>Quản lí khách hàng</t>
+  </si>
+  <si>
+    <t>Quản lí hệ thống</t>
   </si>
 </sst>
 </file>
@@ -513,36 +441,36 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H3:H36"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="28.140625" customWidth="1"/>
-    <col min="10" max="10" width="32.85546875" customWidth="1"/>
-    <col min="11" max="11" width="31.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="9" max="9" width="28.109375" customWidth="1"/>
+    <col min="10" max="10" width="32.88671875" customWidth="1"/>
+    <col min="11" max="11" width="31.5546875" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="H1" s="6" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,10 +478,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -565,21 +493,21 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -587,19 +515,19 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -607,19 +535,21 @@
         <v>2</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="K4" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -627,19 +557,19 @@
         <v>3</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -647,19 +577,19 @@
         <v>4</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -667,19 +597,19 @@
         <v>5</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -687,19 +617,19 @@
         <v>6</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -707,19 +637,21 @@
         <v>7</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="K9" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -727,19 +659,21 @@
         <v>8</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="K10" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -747,19 +681,19 @@
         <v>9</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -767,504 +701,254 @@
         <v>10</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="H13" s="1">
-        <v>11</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="H14" s="1">
-        <v>12</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="2"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="H15" s="1">
-        <v>13</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="2"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="H16" s="1">
-        <v>14</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="H17" s="1">
-        <v>15</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="2"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="H18" s="1">
-        <v>16</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="2"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="H19" s="1">
-        <v>17</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="2"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="H20" s="1">
-        <v>18</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="2"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="H21" s="1">
-        <v>19</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="2"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="H22" s="1">
-        <v>20</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="2"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="H23" s="1">
-        <v>21</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="2"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="H24" s="1">
-        <v>22</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="H25" s="1">
-        <v>23</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="2"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="H26" s="1">
-        <v>24</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="H27" s="1">
-        <v>25</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="2"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="H28" s="1">
-        <v>26</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="H29" s="1">
-        <v>27</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="2"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="H30" s="1">
-        <v>28</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="H31" s="1">
-        <v>29</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="2"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="H32" s="1">
-        <v>30</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="2"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="H33" s="1">
-        <v>31</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="2"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="H34" s="1">
-        <v>32</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="2"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="3"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="H35" s="1">
-        <v>33</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="3"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="H36" s="1">
-        <v>34</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="3"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C37" s="4"/>
       <c r="D37" s="1"/>
     </row>
